--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061F2B7-CD37-41F6-AC4E-80613133F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB65F44D-5601-4B7E-AC5F-B3B2AE4E35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -381,9 +381,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with "," (comma) in the order of actual analysis.
+          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with ";" (semicolon) in the order of actual analysis.
 Examples:
-"alignment:Burrows-Wheller-Aligner:0.7.10,trimming:fastx-clipper:1.1.2-318"</t>
+"alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318"</t>
         </r>
         <r>
           <rPr>
@@ -409,9 +409,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting "," (comma).
+          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting ";" (semicolon).
 Examples:
-"metagenome_assembly:binned,completeness:90;contamination:0"</t>
+"metagenome_assembly:binned;completeness:90;contamination:0"</t>
         </r>
       </text>
     </comment>
@@ -1157,9 +1157,6 @@
     <t>GRCh38</t>
   </si>
   <si>
-    <t>alignment:Burrows-Wheller-Aligner:0.7.10,trimming:fastx-clipper:1.1.2-318</t>
-  </si>
-  <si>
     <t>Analysis-2</t>
   </si>
   <si>
@@ -1215,9 +1212,6 @@
   </si>
   <si>
     <t>d220c355e4e494fd2fe629fc8ce94430</t>
-  </si>
-  <si>
-    <t>Quality trimming:trimmomatic:0.33,digital normalization:khmer:1.4.1,assembly:SPAdes:3.5.0</t>
   </si>
   <si>
     <t>metagenome_assembly:primary</t>
@@ -1246,12 +1240,6 @@
     <t>23875b43bbabac1f378d590cf11b97b2,e9595c64d9971b25a8fca884c7c4194a</t>
   </si>
   <si>
-    <t>Binning:MetaBAT:0.25.4,Annotation:prokka:1.11</t>
-  </si>
-  <si>
-    <t>metagenome_assembly:binned,completeness:90,contamination:0</t>
-  </si>
-  <si>
     <t>Analysis-6</t>
   </si>
   <si>
@@ -1268,9 +1256,6 @@
     <t>b5a1c7bf3287b5a05b99c7627051eec8,93e337e4b5ed24773f150c9fd1989a5c</t>
   </si>
   <si>
-    <t>metagenome_assembly:binned,completeness:85,contamination:2</t>
-  </si>
-  <si>
     <t>Analysis-7</t>
   </si>
   <si>
@@ -1285,9 +1270,6 @@
   </si>
   <si>
     <t>82ba2f99d1268f77e3c3074a4b25cd6c,00605f08dd304ad54ca1d6f9952523f1</t>
-  </si>
-  <si>
-    <t>metagenome_assembly:binned,completeness:95,contamination:3.3</t>
   </si>
   <si>
     <t>Analysis type</t>
@@ -1351,14 +1333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-11-21 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SRR000005-SRR000010</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1373,6 +1347,32 @@
   <si>
     <t>SRR1000005-SRR1000010</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023-12-05 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned;completeness:90;contamination:0</t>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned;completeness:85;contamination:2</t>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned;completeness:95;contamination:3.3</t>
+  </si>
+  <si>
+    <t>alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318</t>
+  </si>
+  <si>
+    <t>Quality trimming:trimmomatic:0.33;digital normalization:khmer:1.4.1;assembly:SPAdes:3.5.0</t>
+  </si>
+  <si>
+    <t>Binning:MetaBAT:0.25.4;Annotation:prokka:1.11</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1856,17 +1858,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1891,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1970,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2208,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -28795,7 +28797,7 @@
         <v>226</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>5</v>
@@ -28833,7 +28835,7 @@
         <v>234</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>235</v>
@@ -28848,228 +28850,229 @@
         <v>237</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>241</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>233</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>243</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>237</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>237</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>257</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="F6" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>266</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -29131,10 +29134,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29157,10 +29160,10 @@
         <v>167</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -29207,7 +29210,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
@@ -29231,10 +29234,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -29256,7 +29259,7 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -29278,7 +29281,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -29297,7 +29300,7 @@
       <c r="E8" s="5"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -29316,7 +29319,7 @@
       <c r="E9" s="5"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -29336,7 +29339,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -29354,7 +29357,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -29372,7 +29375,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\1221\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB65F44D-5601-4B7E-AC5F-B3B2AE4E35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470B295-CD38-4D17-9A40-4A768C14CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A71346FF-F93E-4802-A833-91929E4716A5}">
       <text>
         <r>
           <rPr>
@@ -73,22 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D7917185-D3AD-46BC-AB51-62A97E92C935}">
       <text>
         <r>
           <rPr>
@@ -420,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="300">
   <si>
     <t>Library Source</t>
   </si>
@@ -792,14 +777,6 @@
   </si>
   <si>
     <t>Ion Torrent S5 XL</t>
-  </si>
-  <si>
-    <t>Lab Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Center Name</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Hold Until</t>
@@ -888,10 +865,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BioProject accession</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NOMe-Seq</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -953,15 +926,6 @@
   <si>
     <t>paired</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-  </si>
-  <si>
-    <t>PRJDB7252</t>
   </si>
   <si>
     <t>Hanako Mishima</t>
@@ -1349,30 +1313,38 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-12-05 Bioinformation and DDBJ Center</t>
+    <t>metagenome_assembly:binned;completeness:90;contamination:0</t>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned;completeness:85;contamination:2</t>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned;completeness:95;contamination:3.3</t>
+  </si>
+  <si>
+    <t>alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318</t>
+  </si>
+  <si>
+    <t>Quality trimming:trimmomatic:0.33;digital normalization:khmer:1.4.1;assembly:SPAdes:3.5.0</t>
+  </si>
+  <si>
+    <t>Binning:MetaBAT:0.25.4;Annotation:prokka:1.11</t>
+  </si>
+  <si>
+    <t>2023-12-21 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v1.8</t>
+    <t>v1.9</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>metagenome_assembly:binned;completeness:90;contamination:0</t>
-  </si>
-  <si>
-    <t>metagenome_assembly:binned;completeness:85;contamination:2</t>
-  </si>
-  <si>
-    <t>metagenome_assembly:binned;completeness:95;contamination:3.3</t>
-  </si>
-  <si>
-    <t>alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318</t>
-  </si>
-  <si>
-    <t>Quality trimming:trimmomatic:0.33;digital normalization:khmer:1.4.1;assembly:SPAdes:3.5.0</t>
-  </si>
-  <si>
-    <t>Binning:MetaBAT:0.25.4;Annotation:prokka:1.11</t>
+    <t>Submitting organization</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>National Institute of Genetics</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1846,9 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1868,17 +1838,17 @@
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1891,74 +1861,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1995,7 +1949,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>8</v>
@@ -2022,24 +1976,24 @@
         <v>12</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -2051,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>58</v>
@@ -2062,16 +2016,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -2083,7 +2037,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
@@ -2094,16 +2048,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -2115,30 +2069,30 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -2150,16 +2104,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2178,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>8</v>
@@ -2235,46 +2189,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2289,9 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -2306,7 +2258,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>6</v>
@@ -2317,86 +2269,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28782,22 +28734,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>5</v>
@@ -28809,263 +28761,263 @@
         <v>7</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H7" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>269</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -29098,9 +29050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -29128,16 +29078,16 @@
         <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29157,18 +29107,18 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -29180,13 +29130,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>24</v>
@@ -29197,7 +29147,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
@@ -29210,7 +29160,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
@@ -29218,7 +29168,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>29</v>
@@ -29234,10 +29184,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -29259,7 +29209,7 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -29277,11 +29227,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -29289,7 +29239,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>105</v>
@@ -29300,15 +29250,15 @@
       <c r="E8" s="5"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>64</v>
@@ -29319,7 +29269,7 @@
       <c r="E9" s="5"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -29339,7 +29289,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -29357,7 +29307,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -29375,7 +29325,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -29429,7 +29379,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
@@ -29477,7 +29427,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>54</v>
@@ -29493,7 +29443,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>55</v>
@@ -29509,7 +29459,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>57</v>
@@ -29525,13 +29475,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -29541,7 +29491,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -29557,7 +29507,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>67</v>
@@ -29579,7 +29529,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -29595,7 +29545,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -29611,7 +29561,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -29621,7 +29571,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>78</v>
@@ -29640,7 +29590,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
@@ -29684,7 +29634,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>76</v>
@@ -29754,7 +29704,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>118</v>
@@ -29795,7 +29745,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -29804,22 +29754,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -29839,7 +29789,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -29864,17 +29814,17 @@
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="4:4">

--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\1221\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470B295-CD38-4D17-9A40-4A768C14CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF264C20-878F-4076-9FA4-0DCEF164114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -70,6 +70,21 @@
           <t>YYYY-MM-DD (e.g, 2024-01-01)
 For immediate release, 
 enter date of submission.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FBB5E3C7-9097-4733-83EB-718B648822E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
         </r>
       </text>
     </comment>
@@ -405,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="302">
   <si>
     <t>Library Source</t>
   </si>
@@ -1345,6 +1360,13 @@
   <si>
     <t>National Institute of Genetics</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BioProject accession</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PRJDB7252</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1842,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="143.21875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="143.1796875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1836,7 +1858,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="52.8">
+    <row r="4" spans="1:1" ht="50">
       <c r="A4" s="3" t="s">
         <v>281</v>
       </c>
@@ -1865,30 +1887,36 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="1">
         <v>45292</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C2" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>125</v>
       </c>
@@ -1896,7 +1924,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>169</v>
       </c>
@@ -1904,7 +1932,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
@@ -1912,7 +1940,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1931,20 +1959,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2168,12 +2196,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2245,12 +2273,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28716,20 +28744,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -29052,19 +29080,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>

--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanizawa/projects/ddbj/submission-excel2xml/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF264C20-878F-4076-9FA4-0DCEF164114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654AE10-E890-3E4D-83DC-67FBDBCE164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -1842,10 +1842,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="143.1796875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="143.1640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1858,7 +1858,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="50">
+    <row r="4" spans="1:1" ht="56">
       <c r="A4" s="3" t="s">
         <v>281</v>
       </c>
@@ -1885,13 +1885,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1910,7 +1912,7 @@
         <v>299</v>
       </c>
       <c r="B2" s="1">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>301</v>
@@ -1959,20 +1961,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="25.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2196,12 +2198,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="2"/>
+    <col min="3" max="3" width="29.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2273,12 +2275,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28744,20 +28746,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -29080,19 +29082,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -29118,7 +29120,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -29144,7 +29146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -29170,7 +29172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -29194,7 +29196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -29218,7 +29220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -29240,7 +29242,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -29262,7 +29264,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>

--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanizawa/projects/ddbj/submission-excel2xml/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\20240213\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654AE10-E890-3E4D-83DC-67FBDBCE164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A5C15-0CC2-4163-9EED-627F873131AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="318">
   <si>
     <t>Library Source</t>
   </si>
@@ -1346,14 +1346,6 @@
     <t>Binning:MetaBAT:0.25.4;Annotation:prokka:1.11</t>
   </si>
   <si>
-    <t>2023-12-21 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Submitting organization</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1367,6 +1359,62 @@
   </si>
   <si>
     <t>PRJDB7252</t>
+  </si>
+  <si>
+    <t>2024-02-14 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -1842,23 +1890,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="143.1640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="143.109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="56">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
         <v>281</v>
       </c>
@@ -1885,37 +1933,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1">
         <v>46023</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1961,20 +2007,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="2"/>
+    <col min="12" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2070,7 +2116,7 @@
         <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>306</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -2137,7 +2183,7 @@
         <v>194</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>188</v>
@@ -2178,9 +2224,9 @@
           </x14:formula1>
           <xm:sqref>G2:G3000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AA6A301-AEBC-4D77-B71C-4D1BCE29DD0C}">
           <x14:formula1>
-            <xm:f>Admin!$D$2:$D$66</xm:f>
+            <xm:f>Admin!$D$2:$D$82</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3000</xm:sqref>
         </x14:dataValidation>
@@ -2198,12 +2244,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2275,7 +2321,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
@@ -28746,20 +28792,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -29078,20 +29124,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="38.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -29120,7 +29166,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -29131,7 +29177,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -29146,7 +29192,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -29157,7 +29203,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>168</v>
@@ -29172,7 +29218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -29183,7 +29229,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -29196,7 +29242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -29207,7 +29253,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -29220,7 +29266,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -29231,7 +29277,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -29242,7 +29288,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -29253,7 +29299,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -29264,7 +29310,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -29275,7 +29321,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="18"/>
@@ -29294,7 +29340,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="18"/>
@@ -29313,7 +29359,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -29331,7 +29377,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -29349,7 +29395,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -29367,7 +29413,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -29383,7 +29429,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -29399,7 +29445,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -29415,7 +29461,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -29431,7 +29477,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -29447,7 +29493,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -29463,7 +29509,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -29479,7 +29525,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -29495,7 +29541,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -29511,7 +29557,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -29543,7 +29589,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -29559,7 +29605,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -29575,7 +29621,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -29591,7 +29637,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -29607,7 +29653,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -29623,7 +29669,7 @@
         <v>146</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -29639,7 +29685,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -29653,7 +29699,7 @@
         <v>83</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -29667,7 +29713,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -29681,7 +29727,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -29695,7 +29741,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -29709,7 +29755,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -29723,7 +29769,7 @@
         <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -29737,7 +29783,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -29751,7 +29797,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -29763,7 +29809,7 @@
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -29775,7 +29821,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -29784,131 +29830,211 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="D45" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="D47" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="2" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="2" t="s">
         <v>80</v>
       </c>
     </row>

--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\20240213\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A5C15-0CC2-4163-9EED-627F873131AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C81FE3-2AB1-495F-9F6B-822B09AADB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{18274612-E608-49F9-9BBD-C6D3797B9529}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
-    <sheet name="Submission" sheetId="8" r:id="rId2"/>
-    <sheet name="Experiment" sheetId="2" r:id="rId3"/>
-    <sheet name="Run" sheetId="3" r:id="rId4"/>
-    <sheet name="Run-file" sheetId="4" r:id="rId5"/>
-    <sheet name="Analysis" sheetId="10" r:id="rId6"/>
+    <sheet name="DRA_Submission" sheetId="8" r:id="rId2"/>
+    <sheet name="DRA_Experiment" sheetId="2" r:id="rId3"/>
+    <sheet name="DRA_Run" sheetId="3" r:id="rId4"/>
+    <sheet name="DRA_Run-file" sheetId="4" r:id="rId5"/>
+    <sheet name="DRA_Analysis" sheetId="10" r:id="rId6"/>
     <sheet name="Admin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1361,60 +1362,60 @@
     <t>PRJDB7252</t>
   </si>
   <si>
-    <t>2024-02-14 Bioinformation and DDBJ Center</t>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
+    <t>2024-07-05 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v2.0</t>
+    <t>v3.0</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Illumina HiSeq X</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq X</t>
-  </si>
-  <si>
-    <t>DNBSEQ-G400 FAST</t>
-  </si>
-  <si>
-    <t>BGISEQ-50</t>
-  </si>
-  <si>
-    <t>Sequel IIe</t>
-  </si>
-  <si>
-    <t>Onso</t>
-  </si>
-  <si>
-    <t>Revio</t>
-  </si>
-  <si>
-    <t>Ion Torrent Genexus</t>
-  </si>
-  <si>
-    <t>FASTASeq 300</t>
-  </si>
-  <si>
-    <t>GenoCare 1600</t>
-  </si>
-  <si>
-    <t>GenoLab M</t>
-  </si>
-  <si>
-    <t>GS111</t>
-  </si>
-  <si>
-    <t>Element AVITI</t>
-  </si>
-  <si>
-    <t>UG 100</t>
-  </si>
-  <si>
-    <t>Tapestri</t>
-  </si>
-  <si>
-    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -1888,22 +1889,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="143.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="102.109375" style="2" customWidth="1"/>
     <col min="2" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
@@ -1934,6 +1936,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -2006,6 +2009,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -2116,7 +2120,7 @@
         <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -2243,6 +2247,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -2320,6 +2325,7 @@
   <dimension ref="A1:D4631"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -28791,6 +28797,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -29127,6 +29134,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -29429,7 +29437,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -29493,7 +29501,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -29605,7 +29613,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -29685,7 +29693,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -29755,7 +29763,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -29769,7 +29777,7 @@
         <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -29783,7 +29791,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -29865,7 +29873,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -29935,42 +29943,42 @@
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="4:4">

--- a/example/example-0002_dra_metadata.xlsx
+++ b/example/example-0002_dra_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C81FE3-2AB1-495F-9F6B-822B09AADB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D11763-06C0-45D1-9EA8-135DBF028921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{18274612-E608-49F9-9BBD-C6D3797B9529}"/>
@@ -1410,11 +1410,11 @@
     <t>Sentosa SQ301</t>
   </si>
   <si>
-    <t>2024-07-05 Bioinformation and DDBJ Center</t>
+    <t>2024-10-23 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v3.0</t>
+    <t>v3.1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1908,7 +1908,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="52.8">
+    <row r="4" spans="1:1" ht="66">
       <c r="A4" s="3" t="s">
         <v>281</v>
       </c>
